--- a/rapport_commissions_CA.xlsx
+++ b/rapport_commissions_CA.xlsx
@@ -450,10 +450,10 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01875586946722311</v>
+        <v>0.01874908936650644</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01896376223189697</v>
+        <v>0.01863157382574127</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01768045237739314</v>
+        <v>0.01780750155069691</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01545477716498968</v>
+        <v>0.01525897100840176</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02110263832503679</v>
+        <v>0.02023633180157091</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01863192536265628</v>
+        <v>0.01838038697461489</v>
       </c>
     </row>
     <row r="5">

--- a/rapport_commissions_CA.xlsx
+++ b/rapport_commissions_CA.xlsx
@@ -450,10 +450,10 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01874908936650644</v>
+        <v>0.01882159671977137</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01863157382574127</v>
+        <v>0.01908655965172678</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>0.01780750155069691</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01525897100840176</v>
+        <v>0.01535319515113297</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02023633180157091</v>
+        <v>0.02107478728304341</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01838038697461489</v>
+        <v>0.01908412217653497</v>
       </c>
     </row>
     <row r="5">

--- a/rapport_commissions_CA.xlsx
+++ b/rapport_commissions_CA.xlsx
@@ -450,10 +450,10 @@
         <v>2016</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01882159671977137</v>
+        <v>0.01728545982200379</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01908655965172678</v>
+        <v>0.01749540028844632</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01780750155069691</v>
+        <v>0.01755520187065075</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01535319515113297</v>
+        <v>0.01363320153285969</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2018</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02107478728304341</v>
+        <v>0.0206672789158405</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01908412217653497</v>
+        <v>0.01932004489722617</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.02046083406637194</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.01700154587092772</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>2020</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.009458131645915033</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.009230645457272871</v>
       </c>
     </row>
     <row r="7">
